--- a/handout/table.xlsx
+++ b/handout/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sperber/data/active-group/schulung/isaqb/dsl/dsl-2025-07-online/handout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCEF5A68-3DDA-2344-8256-8FAB9FD0AE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6BD23B4C-DBC1-FA4C-A6EF-3048B9821BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25060" yWindow="8000" windowWidth="27460" windowHeight="16440" xr2:uid="{8DDFDEE9-21D0-BC4A-882D-8320B426632A}"/>
   </bookViews>
